--- a/Messungen.xlsx
+++ b/Messungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Dokumente\DJR_Projektaufgabe_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D539B3F0-C550-4F03-8828-AF2D54B46C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED4A16-33F5-4718-9B42-C885081A638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4D246CFF-C72F-4676-9599-23E2E8B11A28}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Ansatz 1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Ansatz 0</t>
+  </si>
+  <si>
+    <t>messungen l = 512</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,515 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>l = 256, l = 512</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ansatz 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$P$3:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "sek."</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.9139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.584999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.069000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3859999999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07F6-4311-BC4C-3031D5543F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ansatz 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$3:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "sek."</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.374000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.988999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07F6-4311-BC4C-3031D5543F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="779907487"/>
+        <c:axId val="564646239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="779907487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564646239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564646239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000\ &quot;sek.&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779907487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1628,6 +2139,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1661,6 +2688,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>395941</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>395941</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CD8837-31DB-4E61-F929-0C4FD39D2637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1966,15 +3029,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3C52FC-A383-4D69-BEB0-8D4FA3D98B51}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1985,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1998,8 +3061,17 @@
       <c r="D2" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2012,8 +3084,14 @@
       <c r="D3" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P3" s="1">
+        <v>5.9139999999999997</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2026,8 +3104,14 @@
       <c r="D4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P4" s="1">
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2040,8 +3124,14 @@
       <c r="D5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P5" s="1">
+        <v>3.496</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5.5460000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2054,8 +3144,14 @@
       <c r="D6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P6" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>5.5389999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2068,8 +3164,14 @@
       <c r="D7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P7" s="1">
+        <v>1.861</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5.5039999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2082,8 +3184,14 @@
       <c r="D8" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P8" s="1">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5.4690000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2096,8 +3204,14 @@
       <c r="D9" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P9" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5.5369999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2110,8 +3224,14 @@
       <c r="D10" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P10" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5.3869999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2124,8 +3244,14 @@
       <c r="D11" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P11" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5.3920000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2138,8 +3264,14 @@
       <c r="D12" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P12" s="1">
+        <v>75.584999999999994</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>43.470999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2152,8 +3284,14 @@
       <c r="D13" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P13" s="1">
+        <v>59.777000000000001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>43.374000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2166,8 +3304,14 @@
       <c r="D14" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P14" s="1">
+        <v>46.057000000000002</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>43.634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2180,8 +3324,14 @@
       <c r="D15" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P15" s="1">
+        <v>32.829000000000001</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>43.988999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2194,8 +3344,14 @@
       <c r="D16" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P16" s="1">
+        <v>22.940999999999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>43.402999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2208,8 +3364,14 @@
       <c r="D17" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P17" s="1">
+        <v>15.069000000000001</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>43.362000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2222,8 +3384,14 @@
       <c r="D18" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P18" s="1">
+        <v>9.3859999999999992</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>43.000999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2236,8 +3404,14 @@
       <c r="D19" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P19" s="1">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>42.517000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2250,8 +3424,14 @@
       <c r="D20" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="P20" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2265,7 +3445,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2279,7 +3459,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2293,7 +3473,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2307,7 +3487,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2321,7 +3501,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2335,7 +3515,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2349,7 +3529,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2363,7 +3543,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2377,7 +3557,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2391,7 +3571,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2405,7 +3585,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
